--- a/Surveys/2023/06_17_2023_Tracer_Survey.xlsx
+++ b/Surveys/2023/06_17_2023_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\surveys\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE3867-97AF-4D13-BDA4-ADFD92CD7106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B047534-AD8A-4722-9997-453483D4263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>Distance from reference point</t>
   </si>
@@ -59,13 +59,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>ADDED ON 3/24/23</t>
-  </si>
-  <si>
-    <t>For this group, point 29 and 27 could have been mixed up when taking the measurements. If something doesn't look right while triangulating, bare this in mind and perhaps change them?</t>
   </si>
   <si>
     <t>Coordinates</t>
@@ -109,12 +103,15 @@
   <si>
     <t>Composite Error</t>
   </si>
+  <si>
+    <t xml:space="preserve">NEW ROCKS </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +133,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +211,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -381,19 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,12 +424,68 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,55 +794,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694FFA4-917A-4B6E-97D0-115474C635A2}">
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="7" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -784,41 +856,41 @@
         <v>10</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="L2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="O2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="P2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -831,9 +903,11 @@
       <c r="D3" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -844,7 +918,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -857,9 +931,11 @@
       <c r="D4" s="5">
         <v>2.08</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -870,7 +946,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>105</v>
       </c>
@@ -883,9 +959,11 @@
       <c r="D5" s="5">
         <v>1.78</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="4">
+        <v>105</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -896,7 +974,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>25</v>
       </c>
@@ -909,9 +987,11 @@
       <c r="D6" s="5">
         <v>1.49</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="E6" s="4">
+        <v>25</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -922,7 +1002,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>30</v>
       </c>
@@ -935,9 +1015,11 @@
       <c r="D7" s="5">
         <v>1.3599999999999999</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -948,7 +1030,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>88</v>
       </c>
@@ -961,9 +1043,11 @@
       <c r="D8" s="5">
         <v>2.25</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="4">
+        <v>88</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -974,7 +1058,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>67</v>
       </c>
@@ -987,9 +1071,11 @@
       <c r="D9" s="5">
         <v>1.76</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="6">
+        <v>67</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -1000,7 +1086,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1016,8 +1102,8 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1028,7 +1114,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1041,9 +1127,11 @@
       <c r="D11" s="5">
         <v>1.43</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1054,16 +1142,18 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>113</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="E12" s="7">
+        <v>113</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1074,16 +1164,18 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="E13" s="7">
+        <v>42</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1094,7 +1186,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44</v>
       </c>
@@ -1107,9 +1199,11 @@
       <c r="D14" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="E14" s="7">
+        <v>44</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1120,16 +1214,18 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1140,16 +1236,24 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.76</v>
+      </c>
+      <c r="E16" s="4">
+        <v>24</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1160,22 +1264,18 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1.76</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
+        <v>99</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1186,17 +1286,25 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>99</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>13</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -1206,23 +1314,25 @@
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>0.8899999999999999</v>
+        <v>3.8500000000000005</v>
       </c>
       <c r="C19" s="5">
-        <v>0.77</v>
+        <v>4.37</v>
       </c>
       <c r="D19" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="5"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -1232,22 +1342,24 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5">
-        <v>3.8500000000000005</v>
+        <v>3.52</v>
       </c>
       <c r="C20" s="5">
-        <v>4.37</v>
+        <v>4.1800000000000006</v>
       </c>
       <c r="D20" s="5">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="E20" s="4">
+        <v>112</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1258,22 +1370,18 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>112</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3.52</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.1800000000000006</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4.2700000000000005</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="8">
+        <v>54</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1284,16 +1392,18 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="8">
+        <v>38</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1304,16 +1414,18 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="8">
+        <v>33</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1324,16 +1436,18 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="8">
+        <v>117</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1344,16 +1458,18 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="8">
+        <v>26</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1364,16 +1480,24 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.31</v>
+      </c>
+      <c r="E26" s="8">
+        <v>55</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1384,22 +1508,18 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1.31</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8">
+        <v>32</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -1410,16 +1530,18 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="E28" s="8">
+        <v>59</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1430,16 +1552,24 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.82999999999999985</v>
+      </c>
+      <c r="C29" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E29" s="8">
+        <v>57</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1450,22 +1580,18 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>57</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.82999999999999985</v>
-      </c>
-      <c r="C30" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="8">
+        <v>104</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1476,16 +1602,24 @@
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>104</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>87</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1.39</v>
+      </c>
+      <c r="E31" s="6">
+        <v>87</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1496,22 +1630,18 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>87</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1.39</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="6">
+        <v>72</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1522,16 +1652,18 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>82</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="6">
+        <v>82</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1542,16 +1674,24 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>72</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="E34" s="6">
+        <v>71</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1562,16 +1702,18 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6">
+        <v>51</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -1582,22 +1724,24 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5">
-        <v>1.54</v>
+        <v>0.69</v>
       </c>
       <c r="C36" s="5">
-        <v>2.1500000000000004</v>
+        <v>1.24</v>
       </c>
       <c r="D36" s="5">
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="E36" s="6">
+        <v>80</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -1608,16 +1752,18 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="E37" s="6">
+        <v>63</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -1628,22 +1774,18 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>80</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1.24</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1.3599999999999999</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>1050</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="32">
+        <v>1050</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -1654,16 +1796,18 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>63</v>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>1026</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="E39" s="32">
+        <v>1026</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -1674,16 +1818,18 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>50</v>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>1055</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="32">
+        <v>1055</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -1694,16 +1840,18 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>26</v>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>1037</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="E41" s="32">
+        <v>1037</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1714,16 +1862,24 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>55</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+        <v>127</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.33</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="E42" s="6">
+        <v>127</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -1734,16 +1890,18 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+      <c r="E43" s="6">
+        <v>134</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -1754,22 +1912,18 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>127</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="C44" s="5">
-        <v>2.33</v>
-      </c>
-      <c r="D44" s="5">
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6">
+        <v>79</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -1780,16 +1934,18 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>134</v>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>1017</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="E45" s="32">
+        <v>1017</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -1800,16 +1956,18 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>79</v>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>1036</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="E46" s="32">
+        <v>1036</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -1820,16 +1978,18 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>17</v>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>1044</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="E47" s="32">
+        <v>1044</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -1840,16 +2000,24 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>36</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>1065</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1065</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -1860,16 +2028,16 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>44</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -1880,22 +2048,24 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>65</v>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>6</v>
       </c>
       <c r="B50" s="5">
-        <v>3.5</v>
+        <v>0.99</v>
       </c>
       <c r="C50" s="5">
-        <v>4.1500000000000004</v>
+        <v>1.55</v>
       </c>
       <c r="D50" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+        <v>1.39</v>
+      </c>
+      <c r="E50" s="3">
+        <v>6</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -1906,16 +2076,24 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>92</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="D51" s="15">
+        <v>2.23</v>
+      </c>
+      <c r="E51" s="4">
+        <v>92</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -1926,22 +2104,24 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>6</v>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>96</v>
       </c>
       <c r="B52" s="5">
-        <v>0.99</v>
+        <v>1.46</v>
       </c>
       <c r="C52" s="5">
-        <v>1.55</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
+        <v>1.97</v>
+      </c>
+      <c r="D52" s="15">
+        <v>2.04</v>
+      </c>
+      <c r="E52" s="4">
+        <v>96</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -1952,22 +2132,24 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B53" s="5">
-        <v>1.57</v>
+        <v>1.8499999999999999</v>
       </c>
       <c r="C53" s="5">
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="D53" s="15">
+        <v>2.27</v>
+      </c>
+      <c r="D53" s="5">
         <v>2.23</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="E53" s="4">
+        <v>12</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -1978,22 +2160,24 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>96</v>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>125</v>
       </c>
       <c r="B54" s="5">
-        <v>1.46</v>
+        <v>0.81</v>
       </c>
       <c r="C54" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2.04</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+        <v>1.32</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E54" s="8">
+        <v>125</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -2004,22 +2188,24 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>12</v>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>68</v>
       </c>
       <c r="B55" s="5">
-        <v>1.8499999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="C55" s="5">
-        <v>2.27</v>
+        <v>3.22</v>
       </c>
       <c r="D55" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
+        <v>3.24</v>
+      </c>
+      <c r="E55" s="8">
+        <v>68</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -2030,22 +2216,18 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>125</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.45</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>86</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="6">
+        <v>86</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -2056,22 +2238,18 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
-        <v>68</v>
-      </c>
-      <c r="B57" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="C57" s="5">
-        <v>3.22</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3.24</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>126</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="6">
+        <v>126</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -2082,16 +2260,24 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>86</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1.28</v>
+      </c>
+      <c r="E58" s="6">
+        <v>77</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -2102,16 +2288,18 @@
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6">
+        <v>76</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -2122,22 +2310,24 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B60" s="5">
-        <v>0.33</v>
+        <v>1.9799999999999998</v>
       </c>
       <c r="C60" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="D60" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E60" s="6">
+        <v>69</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -2148,16 +2338,24 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>76</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.1900000000000004</v>
+      </c>
+      <c r="E61" s="6">
+        <v>74</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -2168,22 +2366,18 @@
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
-        <v>69</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1.9799999999999998</v>
-      </c>
-      <c r="C62" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D62" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <v>1028</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="32">
+        <v>1028</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -2194,448 +2388,320 @@
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
-        <v>74</v>
-      </c>
-      <c r="B63" s="5">
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2.12</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
-        <v>28</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="38">
+        <v>6</v>
+      </c>
+      <c r="C63" s="38">
+        <v>7</v>
+      </c>
+      <c r="D63" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>36</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>107</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.3800000000000003</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>132</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2.1100000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>62</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="C67" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>85</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.9400000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="32">
+        <v>1049</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="C69" s="5">
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3.9800000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
+        <v>1052</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3.6700000000000004</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.6300000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="21">
+        <v>13</v>
+      </c>
+      <c r="C71" s="21">
+        <v>11</v>
+      </c>
+      <c r="D71" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="39">
+        <v>165</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="39">
+        <v>166</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>138</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
+        <v>150</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>156</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>157</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B79" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="2" t="s">
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F79" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25" t="s">
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>17</v>
+      </c>
+      <c r="C80" s="2">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2">
+        <v>15</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25" t="s">
+      <c r="G80" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="H80" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="2">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2">
-        <v>15</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="27" t="s">
+      <c r="M80" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="27" t="s">
+      <c r="N80" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M67" s="27" t="s">
+      <c r="O80" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="27" t="s">
+      <c r="P80" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O67" s="27" t="s">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
         <v>22</v>
       </c>
-      <c r="P67" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7">
         <v>22</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>114</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>90</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="D70" s="5">
-        <v>3.0500000000000003</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>19</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2.2600000000000002</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>106</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1.8800000000000001</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1.86</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>49</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>128</v>
-      </c>
-      <c r="B74" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="D74" s="5">
-        <v>2.71</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>47</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1.51</v>
-      </c>
-      <c r="D75" s="5">
-        <v>3.21</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>39</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>120</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>60</v>
-      </c>
-      <c r="B78" s="5">
-        <v>2.5300000000000002</v>
-      </c>
-      <c r="C78" s="5">
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1.22</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
-        <v>130</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
-        <v>123</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D80" s="5">
-        <v>3.1300000000000003</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
-        <v>124</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="D81" s="5">
-        <v>3.0700000000000003</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
@@ -2646,16 +2712,18 @@
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
-        <v>81</v>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>114</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
+      <c r="E82" s="7">
+        <v>114</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -2666,16 +2734,24 @@
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
-        <v>6</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>90</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="E83" s="4">
+        <v>90</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -2686,16 +2762,24 @@
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
-        <v>11</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>19</v>
+      </c>
+      <c r="B84" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="E84" s="4">
+        <v>19</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -2706,16 +2790,24 @@
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
-        <v>48</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>106</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="E85" s="4">
+        <v>106</v>
+      </c>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -2726,16 +2818,18 @@
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
-        <v>62</v>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>49</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
+      <c r="E86" s="8">
+        <v>49</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -2746,18 +2840,24 @@
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>128</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="E87" s="8">
+        <v>128</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -2768,22 +2868,24 @@
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>11</v>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>47</v>
       </c>
       <c r="B88" s="5">
-        <v>2.5500000000000003</v>
+        <v>0.63000000000000012</v>
       </c>
       <c r="C88" s="5">
-        <v>1.89</v>
-      </c>
-      <c r="D88" s="15">
-        <v>1.66</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
+        <v>1.51</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3.21</v>
+      </c>
+      <c r="E88" s="8">
+        <v>47</v>
+      </c>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -2794,22 +2896,18 @@
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>97</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1.78</v>
-      </c>
-      <c r="D89" s="5">
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>39</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="8">
+        <v>39</v>
+      </c>
+      <c r="F89" s="25"/>
+      <c r="G89" s="24"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -2820,22 +2918,18 @@
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>37</v>
-      </c>
-      <c r="B90" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="C90" s="5">
-        <v>1.8299999999999998</v>
-      </c>
-      <c r="D90" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>120</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="8">
+        <v>120</v>
+      </c>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
@@ -2846,22 +2940,24 @@
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B91" s="5">
-        <v>2.4400000000000004</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="C91" s="5">
-        <v>2.06</v>
+        <v>2.1900000000000004</v>
       </c>
       <c r="D91" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
+        <v>1.22</v>
+      </c>
+      <c r="E91" s="8">
+        <v>60</v>
+      </c>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
@@ -2872,16 +2968,18 @@
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
-        <v>35</v>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>130</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="6">
+        <v>130</v>
+      </c>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -2892,22 +2990,24 @@
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
-        <v>91</v>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>123</v>
       </c>
       <c r="B93" s="5">
-        <v>2.93</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="C93" s="5">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="D93" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
+        <v>3.1300000000000003</v>
+      </c>
+      <c r="E93" s="6">
+        <v>123</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
@@ -2918,22 +3018,24 @@
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
-        <v>121</v>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>124</v>
       </c>
       <c r="B94" s="5">
-        <v>2.3400000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="C94" s="5">
-        <v>1.39</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="D94" s="5">
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
+        <v>3.0700000000000003</v>
+      </c>
+      <c r="E94" s="6">
+        <v>124</v>
+      </c>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
@@ -2944,22 +3046,18 @@
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
-        <v>46</v>
-      </c>
-      <c r="B95" s="5">
-        <v>2.56</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1.8299999999999998</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>81</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="6">
+        <v>81</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
@@ -2970,16 +3068,18 @@
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
-        <v>51</v>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="32">
+        <v>1006</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
+      <c r="E96" s="32">
+        <v>1006</v>
+      </c>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
@@ -2990,16 +3090,18 @@
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
-        <v>42</v>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="32">
+        <v>1011</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
+      <c r="E97" s="32">
+        <v>1011</v>
+      </c>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -3010,16 +3112,18 @@
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
-        <v>131</v>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="32">
+        <v>1048</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="E98" s="32">
+        <v>1048</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
@@ -3030,22 +3134,18 @@
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <v>75</v>
-      </c>
-      <c r="B99" s="5">
-        <v>2.85</v>
-      </c>
-      <c r="C99" s="5">
-        <v>1.89</v>
-      </c>
-      <c r="D99" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="32">
+        <v>1062</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="32">
+        <v>1062</v>
+      </c>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
@@ -3056,16 +3156,18 @@
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <v>47</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
@@ -3076,22 +3178,24 @@
       <c r="O100" s="14"/>
       <c r="P100" s="14"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <v>40</v>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>11</v>
       </c>
       <c r="B101" s="5">
-        <v>2.64</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="C101" s="5">
-        <v>1.8499999999999999</v>
-      </c>
-      <c r="D101" s="5">
-        <v>1.6099999999999999</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
+        <v>1.89</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="E101" s="7">
+        <v>11</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
@@ -3102,16 +3206,24 @@
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
-        <v>118</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="5">
+        <v>2.4200000000000004</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="E102" s="4">
+        <v>97</v>
+      </c>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -3122,88 +3234,102 @@
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="25"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>1</v>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>37</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1.8299999999999998</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="E103" s="4">
+        <v>37</v>
+      </c>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>108</v>
+      </c>
+      <c r="B104" s="5">
+        <v>2.4400000000000004</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="E104" s="8">
+        <v>108</v>
+      </c>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>35</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J105" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L105" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M105" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N105" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O105" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P105" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>8</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="8">
+        <v>35</v>
+      </c>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>91</v>
+      </c>
+      <c r="B106" s="5">
+        <v>2.93</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E106" s="8">
+        <v>91</v>
+      </c>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -3214,16 +3340,24 @@
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>2</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>121</v>
+      </c>
+      <c r="B107" s="5">
+        <v>2.3400000000000003</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="E107" s="8">
+        <v>121</v>
+      </c>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3234,16 +3368,24 @@
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <v>43</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>46</v>
+      </c>
+      <c r="B108" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1.8299999999999998</v>
+      </c>
+      <c r="E108" s="8">
+        <v>46</v>
+      </c>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3254,22 +3396,18 @@
       <c r="O108" s="14"/>
       <c r="P108" s="14"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>15</v>
-      </c>
-      <c r="B109" s="5">
-        <v>1.7299999999999998</v>
-      </c>
-      <c r="C109" s="5">
-        <v>1.6099999999999999</v>
-      </c>
-      <c r="D109" s="5">
-        <v>2.77</v>
-      </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="32">
+        <v>1051</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="32">
+        <v>1051</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
@@ -3280,16 +3418,18 @@
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <v>94</v>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="32">
+        <v>1042</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="E110" s="32">
+        <v>1042</v>
+      </c>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -3300,16 +3440,18 @@
       <c r="O110" s="14"/>
       <c r="P110" s="14"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
-        <v>95</v>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>131</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
+      <c r="E111" s="6">
+        <v>131</v>
+      </c>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
@@ -3320,16 +3462,24 @@
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="8">
-        <v>109</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>75</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="E112" s="6">
+        <v>75</v>
+      </c>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
@@ -3340,16 +3490,18 @@
       <c r="O112" s="14"/>
       <c r="P112" s="14"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" s="8">
-        <v>66</v>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="32">
+        <v>1047</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
+      <c r="E113" s="32">
+        <v>1047</v>
+      </c>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
@@ -3360,16 +3512,24 @@
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>73</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="B114" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="C114" s="5">
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="E114" s="6">
+        <v>40</v>
+      </c>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
@@ -3380,16 +3540,18 @@
       <c r="O114" s="14"/>
       <c r="P114" s="14"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
+      <c r="E115" s="6">
+        <v>118</v>
+      </c>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -3400,472 +3562,348 @@
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
-        <v>70</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
-        <v>58</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
-        <v>136</v>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="21">
+        <v>17</v>
+      </c>
+      <c r="C116" s="21">
+        <v>16</v>
+      </c>
+      <c r="D116" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>23</v>
+      </c>
+      <c r="B117" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="D117" s="5">
+        <v>4.2700000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>110</v>
       </c>
       <c r="B118" s="5">
-        <v>1.8699999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="C118" s="5">
-        <v>1.8099999999999998</v>
+        <v>0.74</v>
       </c>
       <c r="D118" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
-        <v>39</v>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>48</v>
       </c>
       <c r="B119" s="5">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>61</v>
+      </c>
+      <c r="B120" s="5">
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="C120" s="5">
         <v>1.7299999999999998</v>
       </c>
-      <c r="C119" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="D119" s="5">
-        <v>2.9200000000000004</v>
-      </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
-        <v>5</v>
-      </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D120" s="5">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>31</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="14"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+        <v>52</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="D121" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="32">
+        <v>1061</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="32">
+        <v>1040</v>
+      </c>
+      <c r="B123" s="5">
+        <v>2.77</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="32">
+        <v>1053</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="21">
+        <v>17</v>
+      </c>
+      <c r="C125" s="21">
+        <v>16</v>
+      </c>
+      <c r="D125" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>139</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="D126" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>142</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>146</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="D128" s="5">
+        <v>3.5900000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>149</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="D129" s="5">
+        <v>3.0900000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <v>158</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>164</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="D131" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="41">
+        <v>154</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="D132" s="5">
+        <v>3.5100000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>169</v>
+      </c>
+      <c r="B133" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="D133" s="5">
+        <v>3.8500000000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="23"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
+      <c r="M134" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25" t="s">
+      <c r="N134" s="23"/>
+      <c r="O134" s="23"/>
+      <c r="P134" s="23"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="5">
+        <v>18</v>
+      </c>
+      <c r="C135" s="5">
+        <v>19</v>
+      </c>
+      <c r="D135" s="5">
+        <v>21</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25" t="s">
+      <c r="G135" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="25"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="2">
-        <v>29</v>
-      </c>
-      <c r="C125" s="2">
-        <v>27</v>
-      </c>
-      <c r="D125" s="2">
-        <v>28</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="26" t="s">
+      <c r="H135" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G125" s="26" t="s">
+      <c r="I135" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="27" t="s">
+      <c r="J135" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I125" s="27" t="s">
+      <c r="K135" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="27" t="s">
+      <c r="L135" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K125" s="27" t="s">
+      <c r="M135" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L125" s="27" t="s">
+      <c r="N135" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M125" s="27" t="s">
+      <c r="O135" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N125" s="27" t="s">
+      <c r="P135" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O125" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P125" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>1</v>
-      </c>
-      <c r="B126" s="5">
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="C126" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="D126" s="5">
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
-      <c r="L126" s="14"/>
-      <c r="M126" s="14"/>
-      <c r="N126" s="14"/>
-      <c r="O126" s="14"/>
-      <c r="P126" s="14"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
-        <v>41</v>
-      </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
-      <c r="L127" s="14"/>
-      <c r="M127" s="14"/>
-      <c r="N127" s="14"/>
-      <c r="O127" s="14"/>
-      <c r="P127" s="14"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
-        <v>17</v>
-      </c>
-      <c r="B128" s="5">
-        <v>1.8499999999999999</v>
-      </c>
-      <c r="C128" s="5">
-        <v>2.33</v>
-      </c>
-      <c r="D128" s="5">
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14"/>
-      <c r="M128" s="14"/>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14"/>
-      <c r="P128" s="14"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
-        <v>29</v>
-      </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="14"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
-        <v>14</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
-        <v>119</v>
-      </c>
-      <c r="B131" s="5">
-        <v>1.9799999999999998</v>
-      </c>
-      <c r="C131" s="5">
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="D131" s="5">
-        <v>0.59000000000000008</v>
-      </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="14"/>
-      <c r="M131" s="14"/>
-      <c r="N131" s="14"/>
-      <c r="O131" s="14"/>
-      <c r="P131" s="14"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A132" s="8">
-        <v>45</v>
-      </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
-      <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A133" s="8">
-        <v>20</v>
-      </c>
-      <c r="B133" s="5">
-        <v>1.95</v>
-      </c>
-      <c r="C133" s="5">
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="D133" s="5">
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A134" s="8">
-        <v>34</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="14"/>
-      <c r="P134" s="14"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A135" s="6">
-        <v>64</v>
-      </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
-      <c r="P135" s="14"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
-        <v>56</v>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>8</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
+      <c r="E136" s="3">
+        <v>8</v>
+      </c>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
@@ -3876,16 +3914,18 @@
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A137" s="6">
-        <v>78</v>
-      </c>
-      <c r="B137" s="16"/>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>2</v>
+      </c>
+      <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
+      <c r="E137" s="7">
+        <v>2</v>
+      </c>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
@@ -3896,16 +3936,18 @@
       <c r="O137" s="14"/>
       <c r="P137" s="14"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A138" s="9">
-        <v>2</v>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>43</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
+      <c r="E138" s="7">
+        <v>43</v>
+      </c>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
@@ -3916,16 +3958,24 @@
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A139" s="9">
-        <v>14</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>15</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1.7299999999999998</v>
+      </c>
+      <c r="C139" s="5">
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="D139" s="5">
+        <v>2.77</v>
+      </c>
+      <c r="E139" s="4">
+        <v>15</v>
+      </c>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -3936,16 +3986,18 @@
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A140" s="9">
-        <v>43</v>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>94</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
+      <c r="E140" s="4">
+        <v>94</v>
+      </c>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
@@ -3956,16 +4008,18 @@
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A141" s="9">
-        <v>58</v>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>95</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
+      <c r="E141" s="4">
+        <v>95</v>
+      </c>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -3976,16 +4030,18 @@
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>109</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="8">
+        <v>109</v>
+      </c>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
@@ -3996,22 +4052,18 @@
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
-        <v>5</v>
-      </c>
-      <c r="B143" s="5">
-        <v>2.3400000000000003</v>
-      </c>
-      <c r="C143" s="5">
-        <v>2.54</v>
-      </c>
-      <c r="D143" s="5">
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>66</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="8">
+        <v>66</v>
+      </c>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
@@ -4022,22 +4074,18 @@
       <c r="O143" s="14"/>
       <c r="P143" s="14"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
-        <v>111</v>
-      </c>
-      <c r="B144" s="5">
-        <v>1.89</v>
-      </c>
-      <c r="C144" s="5">
-        <v>1.69</v>
-      </c>
-      <c r="D144" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>73</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="6">
+        <v>73</v>
+      </c>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -4048,22 +4096,18 @@
       <c r="O144" s="14"/>
       <c r="P144" s="14"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A145" s="8">
-        <v>89</v>
-      </c>
-      <c r="B145" s="5">
-        <v>2.6700000000000004</v>
-      </c>
-      <c r="C145" s="5">
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="D145" s="5">
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>129</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="6">
+        <v>129</v>
+      </c>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
@@ -4074,16 +4118,18 @@
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A146" s="8">
-        <v>63</v>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>70</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
+      <c r="E146" s="6">
+        <v>70</v>
+      </c>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -4094,22 +4140,18 @@
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A147" s="8">
-        <v>102</v>
-      </c>
-      <c r="B147" s="5">
-        <v>1.7899999999999998</v>
-      </c>
-      <c r="C147" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="D147" s="5">
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>58</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="6">
+        <v>58</v>
+      </c>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -4120,22 +4162,24 @@
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A148" s="8">
-        <v>116</v>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>136</v>
       </c>
       <c r="B148" s="5">
-        <v>1.9999999999999998</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="C148" s="5">
-        <v>2.1800000000000002</v>
+        <v>1.8099999999999998</v>
       </c>
       <c r="D148" s="5">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E148" s="22"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
+        <v>2.95</v>
+      </c>
+      <c r="E148" s="6">
+        <v>136</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
@@ -4146,22 +4190,24 @@
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A149" s="9">
-        <v>122</v>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="32">
+        <v>1039</v>
       </c>
       <c r="B149" s="5">
-        <v>2.1700000000000004</v>
+        <v>1.7299999999999998</v>
       </c>
       <c r="C149" s="5">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="D149" s="5">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
+        <v>2.9200000000000004</v>
+      </c>
+      <c r="E149" s="32">
+        <v>1039</v>
+      </c>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -4172,22 +4218,18 @@
       <c r="O149" s="14"/>
       <c r="P149" s="14"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A150" s="9">
-        <v>135</v>
-      </c>
-      <c r="B150" s="5">
-        <v>1.89</v>
-      </c>
-      <c r="C150" s="5">
-        <v>1.7299999999999998</v>
-      </c>
-      <c r="D150" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E150" s="23"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="32">
+        <v>1005</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="32">
+        <v>1005</v>
+      </c>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
@@ -4198,28 +4240,1243 @@
       <c r="O150" s="14"/>
       <c r="P150" s="14"/>
     </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="32">
+        <v>1031</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="32">
+        <v>1031</v>
+      </c>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="32">
+        <v>1010</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="32">
+        <v>1010</v>
+      </c>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B153" s="36">
+        <v>21</v>
+      </c>
+      <c r="C153" s="36">
+        <v>20</v>
+      </c>
+      <c r="D153" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>140</v>
+      </c>
+      <c r="B154" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="D154" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>143</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="C155" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="D155" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>145</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="D156" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>147</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="C157" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="D157" s="5">
+        <v>2.81</v>
+      </c>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>160</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="8">
+        <v>162</v>
+      </c>
+      <c r="B159" s="5">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="C159" s="5">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="F159" s="35"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>18</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>170</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="C161" s="5">
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="41">
+        <v>155</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="F162" s="35"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="41">
+        <v>152</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="D163" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>168</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="C164" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="D164" s="5">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="F164" s="35"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="23"/>
+      <c r="M165" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N165" s="23"/>
+      <c r="O165" s="23"/>
+      <c r="P165" s="23"/>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="21">
+        <v>29</v>
+      </c>
+      <c r="C166" s="21">
+        <v>27</v>
+      </c>
+      <c r="D166" s="21">
+        <v>28</v>
+      </c>
+      <c r="E166" s="33"/>
+      <c r="F166" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K166" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L166" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N166" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O166" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P166" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>1</v>
+      </c>
+      <c r="B167" s="5">
+        <v>2.1900000000000004</v>
+      </c>
+      <c r="C167" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="D167" s="5">
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>41</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="7">
+        <v>41</v>
+      </c>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="14"/>
+      <c r="L168" s="14"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="14"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>17</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="C169" s="5">
+        <v>2.33</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="E169" s="4">
+        <v>17</v>
+      </c>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="14"/>
+      <c r="L169" s="14"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>29</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="4">
+        <v>29</v>
+      </c>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="14"/>
+      <c r="L170" s="14"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14"/>
+      <c r="O170" s="14"/>
+      <c r="P170" s="14"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>14</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="4">
+        <v>14</v>
+      </c>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="14"/>
+      <c r="L171" s="14"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14"/>
+      <c r="O171" s="14"/>
+      <c r="P171" s="14"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="8">
+        <v>119</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1.9799999999999998</v>
+      </c>
+      <c r="C172" s="5">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="E172" s="8">
+        <v>119</v>
+      </c>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="14"/>
+      <c r="O172" s="14"/>
+      <c r="P172" s="14"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="8">
+        <v>45</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="8">
+        <v>45</v>
+      </c>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
+      <c r="K173" s="14"/>
+      <c r="L173" s="14"/>
+      <c r="M173" s="14"/>
+      <c r="N173" s="14"/>
+      <c r="O173" s="14"/>
+      <c r="P173" s="14"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="8">
+        <v>20</v>
+      </c>
+      <c r="B174" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="C174" s="5">
+        <v>2.1100000000000003</v>
+      </c>
+      <c r="D174" s="5">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="E174" s="8">
+        <v>20</v>
+      </c>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="14"/>
+      <c r="K174" s="14"/>
+      <c r="L174" s="14"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="14"/>
+      <c r="O174" s="14"/>
+      <c r="P174" s="14"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="8">
+        <v>34</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="8">
+        <v>34</v>
+      </c>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="14"/>
+      <c r="J175" s="14"/>
+      <c r="K175" s="14"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14"/>
+      <c r="O175" s="14"/>
+      <c r="P175" s="14"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>64</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="6">
+        <v>64</v>
+      </c>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>56</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="6">
+        <v>56</v>
+      </c>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>78</v>
+      </c>
+      <c r="B178" s="16"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="6">
+        <v>78</v>
+      </c>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="32">
+        <v>1002</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="32">
+        <v>1002</v>
+      </c>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="14"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="14"/>
+      <c r="P179" s="14"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="32">
+        <v>1014</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="32">
+        <v>1014</v>
+      </c>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="14"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="14"/>
+      <c r="N180" s="14"/>
+      <c r="O180" s="14"/>
+      <c r="P180" s="14"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="32">
+        <v>1043</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="32">
+        <v>1043</v>
+      </c>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="32">
+        <v>1058</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="32">
+        <v>1058</v>
+      </c>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>9</v>
+      </c>
+      <c r="B184" s="5">
+        <v>2.3400000000000003</v>
+      </c>
+      <c r="C184" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="E184" s="7">
+        <v>9</v>
+      </c>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="14"/>
+      <c r="O184" s="14"/>
+      <c r="P184" s="14"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>111</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="D185" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E185" s="4">
+        <v>111</v>
+      </c>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14"/>
+      <c r="O185" s="14"/>
+      <c r="P185" s="14"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="8">
+        <v>89</v>
+      </c>
+      <c r="B186" s="5">
+        <v>2.6700000000000004</v>
+      </c>
+      <c r="C186" s="5">
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="E186" s="8">
+        <v>89</v>
+      </c>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="14"/>
+      <c r="O186" s="14"/>
+      <c r="P186" s="14"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="8">
+        <v>63</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="8">
+        <v>68</v>
+      </c>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14"/>
+      <c r="O187" s="14"/>
+      <c r="P187" s="14"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="8">
+        <v>102</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1.7899999999999998</v>
+      </c>
+      <c r="C188" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="E188" s="8">
+        <v>102</v>
+      </c>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="14"/>
+      <c r="L188" s="14"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="14"/>
+      <c r="P188" s="14"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="8">
+        <v>116</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="C189" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E189" s="8">
+        <v>116</v>
+      </c>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="14"/>
+      <c r="K189" s="14"/>
+      <c r="L189" s="14"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="14"/>
+      <c r="O189" s="14"/>
+      <c r="P189" s="14"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
+        <v>122</v>
+      </c>
+      <c r="B190" s="5">
+        <v>2.1700000000000004</v>
+      </c>
+      <c r="C190" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="D190" s="5">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="E190" s="9">
+        <v>122</v>
+      </c>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="14"/>
+      <c r="L190" s="14"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="14"/>
+      <c r="O190" s="14"/>
+      <c r="P190" s="14"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="9">
+        <v>135</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="C191" s="5">
+        <v>1.7299999999999998</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E191" s="9">
+        <v>135</v>
+      </c>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B192" s="42">
+        <v>29</v>
+      </c>
+      <c r="C192" s="42">
+        <v>28</v>
+      </c>
+      <c r="D192" s="42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>137</v>
+      </c>
+      <c r="B193" s="5">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D193" s="5">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>141</v>
+      </c>
+      <c r="B194" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1.7899999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>144</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1.7099999999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>148</v>
+      </c>
+      <c r="B196" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="C196" s="5">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1.8699999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="8">
+        <v>159</v>
+      </c>
+      <c r="B197" s="5">
+        <v>2.27</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D197" s="5">
+        <v>2.1700000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="8">
+        <v>161</v>
+      </c>
+      <c r="B198" s="5">
+        <v>2.1100000000000003</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D198" s="5">
+        <v>1.5899999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="8">
+        <v>163</v>
+      </c>
+      <c r="B199" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="D199" s="5">
+        <v>2.3400000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>101</v>
+      </c>
+      <c r="B200" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="41">
+        <v>151</v>
+      </c>
+      <c r="B201" s="5">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="D201" s="5">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="41">
+        <v>153</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="C202" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="D202" s="5">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>167</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="C203" s="5">
+        <v>1.31</v>
+      </c>
+      <c r="D203" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="42">
+        <v>29</v>
+      </c>
+      <c r="C204" s="42">
+        <v>27</v>
+      </c>
+      <c r="D204" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="8">
+        <v>98</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="C205" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="D205" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="8">
+        <v>100</v>
+      </c>
+      <c r="B206" s="5">
+        <v>2.1300000000000003</v>
+      </c>
+      <c r="C206" s="5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D206" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>133</v>
+      </c>
+      <c r="B207" s="5">
+        <v>2.0900000000000003</v>
+      </c>
+      <c r="C207" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="D207" s="5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>65</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="C208" s="5">
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1.1099999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="32">
+        <v>1045</v>
+      </c>
+      <c r="B209" s="5">
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="C209" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="D209" s="5">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="32">
+        <v>1057</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="C210" s="5">
+        <v>1.8299999999999998</v>
+      </c>
+      <c r="D210" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="32">
+        <v>1063</v>
+      </c>
+      <c r="B211" s="5">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C211" s="5">
+        <v>3.08</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="32">
+        <v>1041</v>
+      </c>
+      <c r="B212" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="C212" s="5">
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="D212" s="5">
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="H124:L124"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="M104:P104"/>
+  <mergeCells count="10">
+    <mergeCell ref="A183:D183"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="E125:E150"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="M79:P79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Surveys/2023/06_17_2023_Tracer_Survey.xlsx
+++ b/Surveys/2023/06_17_2023_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\surveys\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\Surveys\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B047534-AD8A-4722-9997-453483D4263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCECDCD-0F6C-48E9-B42B-19C9EE669F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>Distance from reference point</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t xml:space="preserve">NEW ROCKS </t>
   </si>
+  <si>
+    <t>added on 07-11-2023</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -400,16 +409,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,24 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,13 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,7 +451,38 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,9 +508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,7 +548,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -644,7 +654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694FFA4-917A-4B6E-97D0-115474C635A2}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H199" sqref="H199"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K207" sqref="K207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,31 +826,31 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -856,37 +866,37 @@
         <v>10</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -906,8 +916,8 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -934,8 +944,8 @@
       <c r="E4" s="7">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -962,8 +972,8 @@
       <c r="E5" s="4">
         <v>105</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -990,8 +1000,8 @@
       <c r="E6" s="4">
         <v>25</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -1018,8 +1028,8 @@
       <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1046,8 +1056,8 @@
       <c r="E8" s="4">
         <v>88</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -1074,8 +1084,8 @@
       <c r="E9" s="6">
         <v>67</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -1102,8 +1112,8 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1130,8 +1140,8 @@
       <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1152,8 +1162,8 @@
       <c r="E12" s="7">
         <v>113</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1174,8 +1184,8 @@
       <c r="E13" s="7">
         <v>42</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1202,8 +1212,8 @@
       <c r="E14" s="7">
         <v>44</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1224,8 +1234,8 @@
       <c r="E15" s="7">
         <v>5</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1252,8 +1262,8 @@
       <c r="E16" s="4">
         <v>24</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1274,8 +1284,8 @@
       <c r="E17" s="4">
         <v>99</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1302,8 +1312,8 @@
       <c r="E18" s="4">
         <v>13</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="5"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1330,8 +1340,8 @@
       <c r="E19" s="4">
         <v>16</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1358,8 +1368,8 @@
       <c r="E20" s="4">
         <v>112</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1380,8 +1390,8 @@
       <c r="E21" s="8">
         <v>54</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1402,8 +1412,8 @@
       <c r="E22" s="8">
         <v>38</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1424,8 +1434,8 @@
       <c r="E23" s="8">
         <v>33</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1446,8 +1456,8 @@
       <c r="E24" s="8">
         <v>117</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1468,8 +1478,8 @@
       <c r="E25" s="8">
         <v>26</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1496,8 +1506,8 @@
       <c r="E26" s="8">
         <v>55</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1518,8 +1528,8 @@
       <c r="E27" s="8">
         <v>32</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -1540,8 +1550,8 @@
       <c r="E28" s="8">
         <v>59</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1568,8 +1578,8 @@
       <c r="E29" s="8">
         <v>57</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1590,8 +1600,8 @@
       <c r="E30" s="8">
         <v>104</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1618,8 +1628,8 @@
       <c r="E31" s="6">
         <v>87</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1640,8 +1650,8 @@
       <c r="E32" s="6">
         <v>72</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1662,8 +1672,8 @@
       <c r="E33" s="6">
         <v>82</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1690,8 +1700,8 @@
       <c r="E34" s="6">
         <v>71</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1712,8 +1722,8 @@
       <c r="E35" s="6">
         <v>51</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -1740,8 +1750,8 @@
       <c r="E36" s="6">
         <v>80</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -1762,8 +1772,8 @@
       <c r="E37" s="6">
         <v>63</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -1775,17 +1785,17 @@
       <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="24">
         <v>1050</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="32">
+      <c r="E38" s="24">
         <v>1050</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -1797,17 +1807,17 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="24">
         <v>1026</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="32">
+      <c r="E39" s="24">
         <v>1026</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -1819,17 +1829,17 @@
       <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="A40" s="24">
         <v>1055</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="32">
+      <c r="E40" s="24">
         <v>1055</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -1841,17 +1851,17 @@
       <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="24">
         <v>1037</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="32">
+      <c r="E41" s="24">
         <v>1037</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1878,8 +1888,8 @@
       <c r="E42" s="6">
         <v>127</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -1900,8 +1910,8 @@
       <c r="E43" s="6">
         <v>134</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -1922,8 +1932,8 @@
       <c r="E44" s="6">
         <v>79</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -1935,17 +1945,17 @@
       <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="24">
         <v>1017</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="32">
+      <c r="E45" s="24">
         <v>1017</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -1957,17 +1967,17 @@
       <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+      <c r="A46" s="24">
         <v>1036</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="32">
+      <c r="E46" s="24">
         <v>1036</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -1979,17 +1989,17 @@
       <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
+      <c r="A47" s="24">
         <v>1044</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="32">
+      <c r="E47" s="24">
         <v>1044</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -2001,7 +2011,7 @@
       <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="24">
         <v>1065</v>
       </c>
       <c r="B48" s="5">
@@ -2013,11 +2023,11 @@
       <c r="D48" s="5">
         <v>4.25</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="24">
         <v>1065</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -2029,15 +2039,15 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -2064,8 +2074,8 @@
       <c r="E50" s="3">
         <v>6</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -2092,8 +2102,8 @@
       <c r="E51" s="4">
         <v>92</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -2120,8 +2130,8 @@
       <c r="E52" s="4">
         <v>96</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -2148,8 +2158,8 @@
       <c r="E53" s="4">
         <v>12</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -2176,8 +2186,8 @@
       <c r="E54" s="8">
         <v>125</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -2204,8 +2214,8 @@
       <c r="E55" s="8">
         <v>68</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -2226,8 +2236,8 @@
       <c r="E56" s="6">
         <v>86</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -2248,8 +2258,8 @@
       <c r="E57" s="6">
         <v>126</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -2276,8 +2286,8 @@
       <c r="E58" s="6">
         <v>77</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -2298,8 +2308,8 @@
       <c r="E59" s="6">
         <v>76</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -2326,8 +2336,8 @@
       <c r="E60" s="6">
         <v>69</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -2354,8 +2364,8 @@
       <c r="E61" s="6">
         <v>74</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -2367,17 +2377,17 @@
       <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
+      <c r="A62" s="24">
         <v>1028</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="32">
+      <c r="E62" s="24">
         <v>1028</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -2389,30 +2399,33 @@
       <c r="P62" s="14"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="38">
+      <c r="B63" s="42">
         <v>6</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="42">
         <v>7</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="38">
         <v>8</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>36</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="40">
         <v>1.63</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="40">
         <v>2.02</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="40">
         <v>1.93</v>
       </c>
     </row>
@@ -2420,13 +2433,13 @@
       <c r="A65" s="8">
         <v>107</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="40">
         <v>1.78</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="40">
         <v>2.3800000000000003</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="40">
         <v>2.39</v>
       </c>
     </row>
@@ -2434,13 +2447,13 @@
       <c r="A66" s="8">
         <v>132</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="40">
         <v>1.29</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="40">
         <v>1.95</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="40">
         <v>2.1100000000000003</v>
       </c>
     </row>
@@ -2448,13 +2461,13 @@
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="40">
         <v>2.66</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="40">
         <v>3.1</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="40">
         <v>3.06</v>
       </c>
     </row>
@@ -2462,83 +2475,83 @@
       <c r="A68" s="6">
         <v>85</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="40">
         <v>3.2800000000000002</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="40">
         <v>2.8600000000000003</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="40">
         <v>2.9400000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="32">
+      <c r="A69" s="24">
         <v>1049</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="40">
         <v>3.45</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="40">
         <v>4.0200000000000005</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="40">
         <v>3.9800000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="32">
+      <c r="A70" s="24">
         <v>1052</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="40">
         <v>3.12</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="40">
         <v>3.6700000000000004</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="40">
         <v>3.6300000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="38">
         <v>13</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="38">
         <v>11</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="39">
+      <c r="A72" s="29">
         <v>165</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="40">
         <v>1.27</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="40">
         <v>1.28</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="40">
         <v>1.22</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="39">
+      <c r="A73" s="29">
         <v>166</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="40">
         <v>1.51</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="40">
         <v>0.71</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="40">
         <v>1.4</v>
       </c>
     </row>
@@ -2546,13 +2559,13 @@
       <c r="A74" s="6">
         <v>138</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="40">
         <v>1.5799999999999998</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="40">
         <v>0.83999999999999986</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="40">
         <v>1.51</v>
       </c>
     </row>
@@ -2560,55 +2573,55 @@
       <c r="A75" s="4">
         <v>10</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="40">
         <v>1.5799999999999998</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="40">
         <v>0.91999999999999993</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="40">
         <v>1.03</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
+      <c r="A76" s="30">
         <v>150</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="40">
         <v>1.22</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="40">
         <v>0.58000000000000007</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="40">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
+      <c r="A77" s="30">
         <v>156</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="40">
         <v>2.35</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="40">
         <v>1.22</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="40">
         <v>0.81</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
+      <c r="A78" s="30">
         <v>157</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="40">
         <v>0.99</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="40">
         <v>0.51</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="40">
         <v>1.64</v>
       </c>
     </row>
@@ -2616,31 +2629,31 @@
       <c r="A79" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26" t="s">
+      <c r="G79" s="37"/>
+      <c r="H79" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26" t="s">
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2656,37 +2669,37 @@
         <v>15</v>
       </c>
       <c r="E80" s="14"/>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H80" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J80" s="23" t="s">
+      <c r="J80" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K80" s="23" t="s">
+      <c r="K80" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L80" s="23" t="s">
+      <c r="L80" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M80" s="23" t="s">
+      <c r="M80" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N80" s="23" t="s">
+      <c r="N80" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O80" s="23" t="s">
+      <c r="O80" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P80" s="23" t="s">
+      <c r="P80" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2700,8 +2713,8 @@
       <c r="E81" s="7">
         <v>22</v>
       </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
@@ -2722,8 +2735,8 @@
       <c r="E82" s="7">
         <v>114</v>
       </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -2750,8 +2763,8 @@
       <c r="E83" s="4">
         <v>90</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -2778,8 +2791,8 @@
       <c r="E84" s="4">
         <v>19</v>
       </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -2806,8 +2819,8 @@
       <c r="E85" s="4">
         <v>106</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -2828,8 +2841,8 @@
       <c r="E86" s="8">
         <v>49</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -2856,8 +2869,8 @@
       <c r="E87" s="8">
         <v>128</v>
       </c>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -2884,8 +2897,8 @@
       <c r="E88" s="8">
         <v>47</v>
       </c>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -2906,8 +2919,8 @@
       <c r="E89" s="8">
         <v>39</v>
       </c>
-      <c r="F89" s="25"/>
-      <c r="G89" s="24"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -2928,8 +2941,8 @@
       <c r="E90" s="8">
         <v>120</v>
       </c>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
@@ -2956,8 +2969,8 @@
       <c r="E91" s="8">
         <v>60</v>
       </c>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
@@ -2978,8 +2991,8 @@
       <c r="E92" s="6">
         <v>130</v>
       </c>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -3006,8 +3019,8 @@
       <c r="E93" s="6">
         <v>123</v>
       </c>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
@@ -3034,8 +3047,8 @@
       <c r="E94" s="6">
         <v>124</v>
       </c>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
@@ -3056,8 +3069,8 @@
       <c r="E95" s="6">
         <v>81</v>
       </c>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
@@ -3069,17 +3082,17 @@
       <c r="P95" s="14"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="32">
+      <c r="A96" s="24">
         <v>1006</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="32">
+      <c r="E96" s="24">
         <v>1006</v>
       </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
@@ -3091,17 +3104,17 @@
       <c r="P96" s="14"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="32">
+      <c r="A97" s="24">
         <v>1011</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="32">
+      <c r="E97" s="24">
         <v>1011</v>
       </c>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -3113,17 +3126,17 @@
       <c r="P97" s="14"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="32">
+      <c r="A98" s="24">
         <v>1048</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="32">
+      <c r="E98" s="24">
         <v>1048</v>
       </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
@@ -3135,17 +3148,17 @@
       <c r="P98" s="14"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="32">
+      <c r="A99" s="24">
         <v>1062</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="32">
+      <c r="E99" s="24">
         <v>1062</v>
       </c>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
@@ -3163,11 +3176,11 @@
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
@@ -3194,8 +3207,8 @@
       <c r="E101" s="7">
         <v>11</v>
       </c>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
@@ -3222,8 +3235,8 @@
       <c r="E102" s="4">
         <v>97</v>
       </c>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -3250,8 +3263,8 @@
       <c r="E103" s="4">
         <v>37</v>
       </c>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -3278,8 +3291,8 @@
       <c r="E104" s="8">
         <v>108</v>
       </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
@@ -3300,8 +3313,8 @@
       <c r="E105" s="8">
         <v>35</v>
       </c>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
@@ -3328,8 +3341,8 @@
       <c r="E106" s="8">
         <v>91</v>
       </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -3356,8 +3369,8 @@
       <c r="E107" s="8">
         <v>121</v>
       </c>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3384,8 +3397,8 @@
       <c r="E108" s="8">
         <v>46</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3397,17 +3410,17 @@
       <c r="P108" s="14"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="32">
+      <c r="A109" s="24">
         <v>1051</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="32">
+      <c r="E109" s="24">
         <v>1051</v>
       </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
@@ -3419,17 +3432,17 @@
       <c r="P109" s="14"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="32">
+      <c r="A110" s="24">
         <v>1042</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="32">
+      <c r="E110" s="24">
         <v>1042</v>
       </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -3450,8 +3463,8 @@
       <c r="E111" s="6">
         <v>131</v>
       </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
@@ -3478,8 +3491,8 @@
       <c r="E112" s="6">
         <v>75</v>
       </c>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
@@ -3491,17 +3504,17 @@
       <c r="P112" s="14"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="32">
+      <c r="A113" s="24">
         <v>1047</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="32">
+      <c r="E113" s="24">
         <v>1047</v>
       </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
@@ -3528,8 +3541,8 @@
       <c r="E114" s="6">
         <v>40</v>
       </c>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
@@ -3550,8 +3563,8 @@
       <c r="E115" s="6">
         <v>118</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -3566,13 +3579,13 @@
       <c r="A116" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="21">
+      <c r="B116" s="38">
         <v>17</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="38">
         <v>16</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D116" s="38">
         <v>15</v>
       </c>
     </row>
@@ -3580,13 +3593,13 @@
       <c r="A117" s="4">
         <v>23</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="40">
         <v>1.3</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="40">
         <v>2.04</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="40">
         <v>4.2700000000000005</v>
       </c>
     </row>
@@ -3594,13 +3607,13 @@
       <c r="A118" s="8">
         <v>110</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="40">
         <v>1.41</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="40">
         <v>0.74</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="40">
         <v>3.24</v>
       </c>
     </row>
@@ -3608,13 +3621,13 @@
       <c r="A119" s="8">
         <v>48</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="40">
         <v>0.82000000000000006</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="40">
         <v>1.3499999999999999</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="40">
         <v>2.75</v>
       </c>
     </row>
@@ -3622,13 +3635,13 @@
       <c r="A120" s="6">
         <v>61</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="40">
         <v>1.6099999999999999</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="40">
         <v>1.7299999999999998</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="40">
         <v>1.72</v>
       </c>
     </row>
@@ -3636,55 +3649,55 @@
       <c r="A121" s="6">
         <v>52</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="40">
         <v>1.41</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="40">
         <v>1.25</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="40">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="32">
+      <c r="A122" s="24">
         <v>1061</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="40">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="40">
         <v>2.1500000000000004</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="40">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32">
+      <c r="A123" s="24">
         <v>1040</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="40">
         <v>2.77</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="40">
         <v>1.7</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="40">
         <v>1.91</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="32">
+      <c r="A124" s="24">
         <v>1053</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="40">
         <v>1.74</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="40">
         <v>1.01</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="40">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -3692,27 +3705,30 @@
       <c r="A125" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="21">
+      <c r="B125" s="38">
         <v>17</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="38">
         <v>16</v>
       </c>
-      <c r="D125" s="21">
+      <c r="D125" s="38">
         <v>15</v>
+      </c>
+      <c r="E125" s="39" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>139</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="40">
         <v>0.75</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="40">
         <v>1.3399999999999999</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="40">
         <v>3.2</v>
       </c>
     </row>
@@ -3720,13 +3736,13 @@
       <c r="A127" s="6">
         <v>142</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="40">
         <v>1.38</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="40">
         <v>0.72</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="40">
         <v>2.85</v>
       </c>
     </row>
@@ -3734,13 +3750,13 @@
       <c r="A128" s="6">
         <v>146</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="40">
         <v>1.32</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="40">
         <v>1.0799999999999998</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="40">
         <v>3.5900000000000003</v>
       </c>
     </row>
@@ -3748,13 +3764,13 @@
       <c r="A129" s="6">
         <v>149</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="40">
         <v>1.05</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="40">
         <v>0.98</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="40">
         <v>3.0900000000000003</v>
       </c>
     </row>
@@ -3762,13 +3778,13 @@
       <c r="A130" s="8">
         <v>158</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="40">
         <v>1.05</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="40">
         <v>1.01</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="40">
         <v>2.89</v>
       </c>
     </row>
@@ -3776,27 +3792,27 @@
       <c r="A131" s="8">
         <v>164</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="40">
         <v>1.28</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="40">
         <v>1.18</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="40">
         <v>3.7</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="41">
+      <c r="A132" s="31">
         <v>154</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="40">
         <v>0.8899999999999999</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="40">
         <v>1.38</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="40">
         <v>3.5100000000000002</v>
       </c>
     </row>
@@ -3804,13 +3820,13 @@
       <c r="A133" s="3">
         <v>169</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="40">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="40">
         <v>1.45</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="40">
         <v>3.8500000000000005</v>
       </c>
     </row>
@@ -3818,34 +3834,34 @@
       <c r="A134" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="19"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="21" t="s">
+      <c r="C134" s="18"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23" t="s">
+      <c r="G134" s="21"/>
+      <c r="H134" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23"/>
-      <c r="M134" s="23" t="s">
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N134" s="23"/>
-      <c r="O134" s="23"/>
-      <c r="P134" s="23"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="21"/>
+      <c r="P134" s="21"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B135" s="5">
@@ -3858,37 +3874,37 @@
         <v>21</v>
       </c>
       <c r="E135" s="5"/>
-      <c r="F135" s="22" t="s">
+      <c r="F135" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G135" s="22" t="s">
+      <c r="G135" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="23" t="s">
+      <c r="H135" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I135" s="23" t="s">
+      <c r="I135" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J135" s="23" t="s">
+      <c r="J135" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K135" s="23" t="s">
+      <c r="K135" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L135" s="23" t="s">
+      <c r="L135" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M135" s="23" t="s">
+      <c r="M135" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N135" s="23" t="s">
+      <c r="N135" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O135" s="23" t="s">
+      <c r="O135" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P135" s="23" t="s">
+      <c r="P135" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3902,8 +3918,8 @@
       <c r="E136" s="3">
         <v>8</v>
       </c>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
@@ -3924,8 +3940,8 @@
       <c r="E137" s="7">
         <v>2</v>
       </c>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
@@ -3946,8 +3962,8 @@
       <c r="E138" s="7">
         <v>43</v>
       </c>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
@@ -3974,8 +3990,8 @@
       <c r="E139" s="4">
         <v>15</v>
       </c>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -3996,8 +4012,8 @@
       <c r="E140" s="4">
         <v>94</v>
       </c>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
@@ -4018,8 +4034,8 @@
       <c r="E141" s="4">
         <v>95</v>
       </c>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -4040,8 +4056,8 @@
       <c r="E142" s="8">
         <v>109</v>
       </c>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
@@ -4062,8 +4078,8 @@
       <c r="E143" s="8">
         <v>66</v>
       </c>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
@@ -4084,8 +4100,8 @@
       <c r="E144" s="6">
         <v>73</v>
       </c>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -4106,8 +4122,8 @@
       <c r="E145" s="6">
         <v>129</v>
       </c>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
@@ -4128,8 +4144,8 @@
       <c r="E146" s="6">
         <v>70</v>
       </c>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -4150,8 +4166,8 @@
       <c r="E147" s="6">
         <v>58</v>
       </c>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -4178,8 +4194,8 @@
       <c r="E148" s="6">
         <v>136</v>
       </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
@@ -4191,7 +4207,7 @@
       <c r="P148" s="14"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="32">
+      <c r="A149" s="24">
         <v>1039</v>
       </c>
       <c r="B149" s="5">
@@ -4203,11 +4219,11 @@
       <c r="D149" s="5">
         <v>2.9200000000000004</v>
       </c>
-      <c r="E149" s="32">
+      <c r="E149" s="24">
         <v>1039</v>
       </c>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -4219,17 +4235,17 @@
       <c r="P149" s="14"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="32">
+      <c r="A150" s="24">
         <v>1005</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="32">
+      <c r="E150" s="24">
         <v>1005</v>
       </c>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
@@ -4241,17 +4257,17 @@
       <c r="P150" s="14"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="32">
+      <c r="A151" s="24">
         <v>1031</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="32">
+      <c r="E151" s="24">
         <v>1031</v>
       </c>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="14"/>
@@ -4263,17 +4279,17 @@
       <c r="P151" s="14"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="32">
+      <c r="A152" s="24">
         <v>1010</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="32">
+      <c r="E152" s="24">
         <v>1010</v>
       </c>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14"/>
@@ -4285,278 +4301,281 @@
       <c r="P152" s="14"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B153" s="36">
+      <c r="B153" s="41">
         <v>21</v>
       </c>
-      <c r="C153" s="36">
+      <c r="C153" s="41">
         <v>20</v>
       </c>
-      <c r="D153" s="36">
+      <c r="D153" s="41">
         <v>19</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>140</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="40">
         <v>1.86</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="40">
         <v>1.47</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="40">
         <v>1.25</v>
       </c>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>143</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="40">
         <v>1.84</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="40">
         <v>1.56</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="40">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="35"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>145</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="40">
         <v>1.41</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="40">
         <v>0.90999999999999992</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="40">
         <v>1.43</v>
       </c>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>147</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="40">
         <v>1.7499999999999998</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="40">
         <v>1.18</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="40">
         <v>2.81</v>
       </c>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>160</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="40">
         <v>1.25</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="40">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="40">
         <v>1.19</v>
       </c>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>162</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="40">
         <v>1.0899999999999999</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="40">
         <v>0.8899999999999999</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="40">
         <v>1.86</v>
       </c>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>18</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="40">
         <v>1.5</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="40">
         <v>1.05</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="40">
         <v>2.52</v>
       </c>
-      <c r="F160" s="35"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="35"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>170</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="40">
         <v>1.45</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="40">
         <v>0.87999999999999989</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="40">
         <v>1.48</v>
       </c>
-      <c r="F161" s="35"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="35"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="41">
+      <c r="A162" s="31">
         <v>155</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="40">
         <v>1.52</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="40">
         <v>0.89999999999999991</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="40">
         <v>1.47</v>
       </c>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="41">
+      <c r="A163" s="31">
         <v>152</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="40">
         <v>1.01</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="40">
         <v>1.19</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="40">
         <v>2.1</v>
       </c>
-      <c r="F163" s="35"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>168</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="40">
         <v>1.53</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="40">
         <v>1.53</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="40">
         <v>2.8000000000000003</v>
       </c>
-      <c r="F164" s="35"/>
-      <c r="G164" s="35"/>
-      <c r="H164" s="35"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="21" t="s">
+      <c r="C165" s="18"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F165" s="23" t="s">
+      <c r="F165" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23" t="s">
+      <c r="G165" s="21"/>
+      <c r="H165" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I165" s="23"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="23"/>
-      <c r="M165" s="23" t="s">
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="21"/>
+      <c r="M165" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N165" s="23"/>
-      <c r="O165" s="23"/>
-      <c r="P165" s="23"/>
+      <c r="N165" s="21"/>
+      <c r="O165" s="21"/>
+      <c r="P165" s="21"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="21">
+      <c r="B166" s="2">
         <v>29</v>
       </c>
-      <c r="C166" s="21">
+      <c r="C166" s="2">
         <v>27</v>
       </c>
-      <c r="D166" s="21">
+      <c r="D166" s="2">
         <v>28</v>
       </c>
-      <c r="E166" s="33"/>
-      <c r="F166" s="22" t="s">
+      <c r="E166" s="25"/>
+      <c r="F166" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G166" s="22" t="s">
+      <c r="G166" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="23" t="s">
+      <c r="H166" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="23" t="s">
+      <c r="I166" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J166" s="23" t="s">
+      <c r="J166" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K166" s="23" t="s">
+      <c r="K166" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L166" s="23" t="s">
+      <c r="L166" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M166" s="23" t="s">
+      <c r="M166" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N166" s="23" t="s">
+      <c r="N166" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O166" s="23" t="s">
+      <c r="O166" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P166" s="23" t="s">
+      <c r="P166" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4576,8 +4595,8 @@
       <c r="E167" s="3">
         <v>1</v>
       </c>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="14"/>
@@ -4598,8 +4617,8 @@
       <c r="E168" s="7">
         <v>41</v>
       </c>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="14"/>
@@ -4626,8 +4645,8 @@
       <c r="E169" s="4">
         <v>17</v>
       </c>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="14"/>
@@ -4648,8 +4667,8 @@
       <c r="E170" s="4">
         <v>29</v>
       </c>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="14"/>
@@ -4670,8 +4689,8 @@
       <c r="E171" s="4">
         <v>14</v>
       </c>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="14"/>
@@ -4698,8 +4717,8 @@
       <c r="E172" s="8">
         <v>119</v>
       </c>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
@@ -4720,8 +4739,8 @@
       <c r="E173" s="8">
         <v>45</v>
       </c>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="14"/>
@@ -4748,8 +4767,8 @@
       <c r="E174" s="8">
         <v>20</v>
       </c>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="14"/>
@@ -4770,8 +4789,8 @@
       <c r="E175" s="8">
         <v>34</v>
       </c>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="14"/>
@@ -4792,8 +4811,8 @@
       <c r="E176" s="6">
         <v>64</v>
       </c>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="14"/>
@@ -4814,8 +4833,8 @@
       <c r="E177" s="6">
         <v>56</v>
       </c>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
@@ -4836,8 +4855,8 @@
       <c r="E178" s="6">
         <v>78</v>
       </c>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="14"/>
@@ -4849,17 +4868,17 @@
       <c r="P178" s="14"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A179" s="32">
+      <c r="A179" s="24">
         <v>1002</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="32">
+      <c r="E179" s="24">
         <v>1002</v>
       </c>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="14"/>
@@ -4871,17 +4890,17 @@
       <c r="P179" s="14"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A180" s="32">
+      <c r="A180" s="24">
         <v>1014</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="32">
+      <c r="E180" s="24">
         <v>1014</v>
       </c>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="14"/>
@@ -4893,17 +4912,17 @@
       <c r="P180" s="14"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" s="32">
+      <c r="A181" s="24">
         <v>1043</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
-      <c r="E181" s="32">
+      <c r="E181" s="24">
         <v>1043</v>
       </c>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -4915,17 +4934,17 @@
       <c r="P181" s="14"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182" s="32">
+      <c r="A182" s="24">
         <v>1058</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="32">
+      <c r="E182" s="24">
         <v>1058</v>
       </c>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -4937,15 +4956,15 @@
       <c r="P182" s="14"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" s="29" t="s">
+      <c r="A183" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="24"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="14"/>
@@ -4972,8 +4991,8 @@
       <c r="E184" s="7">
         <v>9</v>
       </c>
-      <c r="F184" s="24"/>
-      <c r="G184" s="24"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="14"/>
@@ -5000,8 +5019,8 @@
       <c r="E185" s="4">
         <v>111</v>
       </c>
-      <c r="F185" s="24"/>
-      <c r="G185" s="24"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="14"/>
@@ -5028,8 +5047,8 @@
       <c r="E186" s="8">
         <v>89</v>
       </c>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="14"/>
@@ -5050,8 +5069,8 @@
       <c r="E187" s="8">
         <v>68</v>
       </c>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="14"/>
@@ -5078,8 +5097,8 @@
       <c r="E188" s="8">
         <v>102</v>
       </c>
-      <c r="F188" s="24"/>
-      <c r="G188" s="24"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
       <c r="J188" s="14"/>
@@ -5106,8 +5125,8 @@
       <c r="E189" s="8">
         <v>116</v>
       </c>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
       <c r="J189" s="14"/>
@@ -5134,8 +5153,8 @@
       <c r="E190" s="9">
         <v>122</v>
       </c>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
       <c r="J190" s="14"/>
@@ -5162,8 +5181,8 @@
       <c r="E191" s="9">
         <v>135</v>
       </c>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
       <c r="J191" s="14"/>
@@ -5175,308 +5194,314 @@
       <c r="P191" s="14"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B192" s="42">
+      <c r="B192" s="38">
         <v>29</v>
       </c>
-      <c r="C192" s="42">
+      <c r="C192" s="38">
         <v>28</v>
       </c>
-      <c r="D192" s="42">
+      <c r="D192" s="38">
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>137</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="40">
         <v>2.4000000000000004</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193" s="40">
         <v>0.5</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="40">
         <v>2.54</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>141</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="40">
         <v>2.16</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="40">
         <v>0.66999999999999993</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="40">
         <v>1.7899999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>144</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="40">
         <v>1.78</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195" s="40">
         <v>0.8</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="40">
         <v>1.7099999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>148</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="40">
         <v>1.55</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="40">
         <v>1.0899999999999999</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="40">
         <v>1.8699999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>159</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="40">
         <v>2.27</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="40">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="40">
         <v>2.1700000000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>161</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="40">
         <v>2.1100000000000003</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="40">
         <v>0.95</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="40">
         <v>1.5899999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>163</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="40">
         <v>2.21</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="40">
         <v>0.65999999999999992</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="40">
         <v>2.3400000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>101</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="40">
         <v>1.66</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="40">
         <v>0.90999999999999992</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="40">
         <v>1.82</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="41">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="31">
         <v>151</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="40">
         <v>2.3000000000000003</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="40">
         <v>0.26000000000000006</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="40">
         <v>2.27</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="41">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="31">
         <v>153</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="40">
         <v>1.54</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="40">
         <v>1.05</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="40">
         <v>1.46</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>167</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="40">
         <v>1.44</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" s="40">
         <v>1.31</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="40">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="42">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="38">
         <v>29</v>
       </c>
-      <c r="C204" s="42">
+      <c r="C204" s="38">
         <v>27</v>
       </c>
-      <c r="D204" s="42">
+      <c r="D204" s="38">
         <v>28</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>98</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="40">
         <v>1.42</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="40">
         <v>1.49</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="40">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>100</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="40">
         <v>2.1300000000000003</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="40">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="40">
         <v>0.96</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>133</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="40">
         <v>2.0900000000000003</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="40">
         <v>2.31</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="40">
         <v>0.73</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>65</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="40">
         <v>1.43</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="40">
         <v>1.5899999999999999</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="40">
         <v>1.1099999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="32">
+      <c r="A209" s="24">
         <v>1045</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="40">
         <v>2.1500000000000004</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="40">
         <v>2.31</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="40">
         <v>0.59000000000000008</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="32">
+      <c r="A210" s="24">
         <v>1057</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="40">
         <v>1.7499999999999998</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="40">
         <v>1.8299999999999998</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="40">
         <v>0.78</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="32">
+      <c r="A211" s="24">
         <v>1063</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="40">
         <v>2.8000000000000003</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C211" s="40">
         <v>3.08</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="40">
         <v>1.84</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="32">
+      <c r="A212" s="24">
         <v>1041</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="40">
         <v>1.84</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="40">
         <v>1.8800000000000001</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="40">
         <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="37"/>
+      <c r="A213" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="M79:P79"/>
     <mergeCell ref="A183:D183"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="M79:P79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
